--- a/data/trans_bre/P36B08_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P36B08_R-Estudios-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>2.926777851943385</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>1.275920063308045</v>
+        <v>1.275920063308023</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1352565898687178</v>
@@ -649,7 +649,7 @@
         <v>0.03828769779322658</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.01365927411906666</v>
+        <v>0.01365927411906642</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.798404596149867</v>
+        <v>5.103374587184386</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.368010310745104</v>
+        <v>3.909350174652164</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.238469868271742</v>
+        <v>-1.328792759768454</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.8294050007087075</v>
+        <v>-0.84631977046269</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.0736075704550929</v>
+        <v>0.07717648117579559</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05881822652530526</v>
+        <v>0.05120842070900046</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.01557400572552931</v>
+        <v>-0.01699070872401061</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.008936889772862179</v>
+        <v>-0.008918708299457607</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>12.27951481069642</v>
+        <v>12.48545646539489</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>11.63198397195908</v>
+        <v>11.28710756968933</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.728501007424309</v>
+        <v>6.868500020435498</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.836710811122817</v>
+        <v>3.753136957866845</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1986389860081056</v>
+        <v>0.2014430685334781</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1646819518369616</v>
+        <v>0.160357073556815</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.09047093512073209</v>
+        <v>0.09220184776764551</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.04155259150902786</v>
+        <v>0.04090784977319917</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>5.867415107022877</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>2.027178205971647</v>
+        <v>2.027178205971625</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1299837434208994</v>
@@ -749,7 +749,7 @@
         <v>0.08475799331143298</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.02159898827349626</v>
+        <v>0.02159898827349602</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>4.545248632050888</v>
+        <v>4.448508030453374</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>5.131568648549261</v>
+        <v>4.996021172204682</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.917990947429547</v>
+        <v>3.144013259503545</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4809641104444243</v>
+        <v>0.4576573655906755</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.07126930325674682</v>
+        <v>0.06990732949644028</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07322729329890432</v>
+        <v>0.07011375394451733</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04136520372302581</v>
+        <v>0.0452687733973697</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.005086169167030502</v>
+        <v>0.0048255032088612</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>11.22572566097936</v>
+        <v>11.22265517141078</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>11.06222839113618</v>
+        <v>10.84472061158028</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9.021722242523543</v>
+        <v>8.78519624808369</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.722366021651608</v>
+        <v>3.459453109124178</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.18712219133561</v>
+        <v>0.1856022686846228</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1650212382309769</v>
+        <v>0.1606764232363732</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1346256327148749</v>
+        <v>0.1303331877889037</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.04016512026281325</v>
+        <v>0.0372812885638165</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>3.584274195619774</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-0.09332055504339687</v>
+        <v>-0.09332055504338577</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07031099242057383</v>
@@ -849,7 +849,7 @@
         <v>0.04576948138187354</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.0009646407087669235</v>
+        <v>-0.0009646407087668088</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.187920628493993</v>
+        <v>-1.421611687692196</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>4.091538148488178</v>
+        <v>4.365754990277893</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.9076409002530305</v>
+        <v>-1.40055018540117</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.024498590415299</v>
+        <v>-1.963229062282212</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.01766499677430099</v>
+        <v>-0.02106293804322774</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05227882364205189</v>
+        <v>0.05686839606024945</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.01122563936985716</v>
+        <v>-0.01764702832207035</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.02072596385074386</v>
+        <v>-0.02011736622846061</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.30263373222215</v>
+        <v>10.26089478462834</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>14.80866424682961</v>
+        <v>14.54616246165655</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.682191951847637</v>
+        <v>8.751550708892648</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.749159170593136</v>
+        <v>1.958414865721682</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1773731822584791</v>
+        <v>0.1600931429910016</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2059917143500796</v>
+        <v>0.2041785533646073</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1151259580830956</v>
+        <v>0.115161047750178</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.01822423141101917</v>
+        <v>0.02059331963265083</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>5.021794031463165</v>
+        <v>5.438397801642045</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>6.297379390626864</v>
+        <v>6.214584173039486</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.797963689736525</v>
+        <v>2.878225519333462</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.274591775152419</v>
+        <v>0.2613644451002286</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.07901508225560805</v>
+        <v>0.08407349370273889</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08677143889753576</v>
+        <v>0.08537996485621853</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03830511814873732</v>
+        <v>0.03910331974451933</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.002979838641632775</v>
+        <v>0.002727428991342203</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>10.08073231960078</v>
+        <v>10.03829552672623</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>10.72002460000364</v>
+        <v>10.50925329063704</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.076204069322436</v>
+        <v>7.167685252526073</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.457024141233628</v>
+        <v>2.508889575360771</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1628238367953258</v>
+        <v>0.1626679325312806</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1529169786697863</v>
+        <v>0.1504140452878402</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.09997157074035321</v>
+        <v>0.1008677467139273</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.02635205316917253</v>
+        <v>0.02669446056606169</v>
       </c>
     </row>
     <row r="16">
